--- a/db/AiCity-77-Video.xlsx
+++ b/db/AiCity-77-Video.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4EB494-39FC-4C42-8ABC-6076F5B38669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661294A-9FB2-5C40-9F11-EC8090464FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="1940" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22260" yWindow="5080" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
   <si>
     <t>title</t>
   </si>
@@ -249,13 +249,29 @@
   </si>
   <si>
     <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美麗台灣新視界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.twbest1.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-美麗台灣新視界.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +283,13 @@
       <name val="Wawati TC"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -286,15 +309,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,8 +944,28 @@
         <v>51</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{5D25A6CD-5693-8C46-B530-CBA9FCB0051F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/AiCity-77-Video.xlsx
+++ b/db/AiCity-77-Video.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2661294A-9FB2-5C40-9F11-EC8090464FB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A512600-AFBB-A140-ABB1-1DC7A12A603E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="5080" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14580" yWindow="3000" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>fig/AiCity-923-美麗台灣新視界.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/XJ8RjmC3tOt87t9wj2krfQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美麗中國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-美麗中國.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,13 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -961,10 +976,28 @@
         <v>51</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{5D25A6CD-5693-8C46-B530-CBA9FCB0051F}"/>
+    <hyperlink ref="D20" r:id="rId2" xr:uid="{2826745B-3F19-C545-9337-E1F646FAF1FE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-77-Video.xlsx
+++ b/db/AiCity-77-Video.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A512600-AFBB-A140-ABB1-1DC7A12A603E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5E1C89-9A20-204B-942E-FFB0E61E6529}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3000" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="7080" windowWidth="50040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>title</t>
   </si>
@@ -280,13 +280,28 @@
   <si>
     <t>fig/AiCity-923-美麗中國.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>熱狗遊戲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-RegoGame.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.regogame.com/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,6 +320,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,10 +350,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -635,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
@@ -653,7 +678,7 @@
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -670,7 +695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -687,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -704,7 +729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -721,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
@@ -738,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
@@ -755,7 +780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -772,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -789,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -806,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -823,7 +848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -840,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -857,7 +882,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -874,7 +899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -891,7 +916,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>72</v>
       </c>
@@ -908,7 +933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -925,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -942,7 +967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -959,7 +984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -976,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
@@ -990,6 +1015,23 @@
         <v>81</v>
       </c>
       <c r="E20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1">
+      <c r="A21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -998,6 +1040,7 @@
   <hyperlinks>
     <hyperlink ref="D19" r:id="rId1" xr:uid="{5D25A6CD-5693-8C46-B530-CBA9FCB0051F}"/>
     <hyperlink ref="D20" r:id="rId2" xr:uid="{2826745B-3F19-C545-9337-E1F646FAF1FE}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{7A7EA459-3B5A-2D4C-9748-F6721482A430}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
